--- a/Scripts/Python Script Versions/Experimental Data/Client Testing - multiple day pulls/Main Version12-13.xlsx
+++ b/Scripts/Python Script Versions/Experimental Data/Client Testing - multiple day pulls/Main Version12-13.xlsx
@@ -5,27 +5,38 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padmanie\Documents\GitHub\Capstone\DataCollection\Scripts\Python Script Versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padmanie\Documents\GitHub\Capstone\DataCollection\Scripts\Python Script Versions\Experimental Data\Client Testing - multiple day pulls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1174D-BE7B-4320-983D-F99294686AF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389C4762-ABDE-4580-9892-31892D0485FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hayden" sheetId="1" r:id="rId1"/>
-    <sheet name="Connor" sheetId="2" r:id="rId2"/>
-    <sheet name="Alex" sheetId="3" r:id="rId3"/>
+    <sheet name="Alex" sheetId="4" r:id="rId2"/>
+    <sheet name="Paddy" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hayden!$B$1:$L$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alex!$A$1:$L$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hayden!$A$1:$L$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Paddy!$A$1:$L$61</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="204">
   <si>
     <t>nonRel</t>
   </si>
@@ -1413,12 +1424,36 @@
   <si>
     <t>index</t>
   </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Current Stats on our Final design</t>
+  </si>
+  <si>
+    <t>P@10</t>
+  </si>
+  <si>
+    <t>P@15</t>
+  </si>
+  <si>
+    <t>Hayden</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Paddy</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,6 +1465,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1496,10 +1539,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1522,8 +1566,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1861,16 +1907,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:L217"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L61" sqref="F1:L61"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="0.109375" customWidth="1"/>
     <col min="6" max="6" width="75.33203125" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
@@ -1879,7 +1925,10 @@
     <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
       <c r="B1" t="s">
         <v>195</v>
       </c>
@@ -1914,7 +1963,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2">
         <v>6</v>
       </c>
@@ -1942,8 +1994,14 @@
       <c r="J2" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="2">
         <v>13</v>
       </c>
@@ -1971,8 +2029,14 @@
       <c r="J3" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="2">
         <v>18</v>
       </c>
@@ -2000,11 +2064,11 @@
       <c r="J4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -2030,8 +2094,14 @@
       <c r="J5" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" s="2">
         <v>17</v>
       </c>
@@ -2059,11 +2129,11 @@
       <c r="J6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" s="2">
         <v>12</v>
       </c>
@@ -2091,8 +2161,14 @@
       <c r="J7" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" s="2">
         <v>11</v>
       </c>
@@ -2120,8 +2196,14 @@
       <c r="J8" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -2149,8 +2231,14 @@
       <c r="J9" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -2178,8 +2266,14 @@
       <c r="J10" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -2207,8 +2301,14 @@
       <c r="J11" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -2236,8 +2336,14 @@
       <c r="J12" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -2265,8 +2371,14 @@
       <c r="J13" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" s="2">
         <v>14</v>
       </c>
@@ -2294,8 +2406,14 @@
       <c r="J14" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2323,8 +2441,14 @@
       <c r="J15" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -2352,8 +2476,14 @@
       <c r="J16" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
       <c r="B17" s="4">
         <v>8</v>
       </c>
@@ -2381,8 +2511,14 @@
       <c r="J17" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
       <c r="B18" s="2">
         <v>19</v>
       </c>
@@ -2410,11 +2546,11 @@
       <c r="J18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -2442,8 +2578,14 @@
       <c r="J19" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
@@ -2471,8 +2613,14 @@
       <c r="J20" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
@@ -2500,8 +2648,14 @@
       <c r="J21" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -2529,8 +2683,14 @@
       <c r="J22" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23" s="2">
         <v>15</v>
       </c>
@@ -2562,7 +2722,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
       <c r="B24" s="4">
         <v>12</v>
       </c>
@@ -2590,8 +2753,14 @@
       <c r="J24" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
       <c r="B25" s="2">
         <v>7</v>
       </c>
@@ -2619,8 +2788,14 @@
       <c r="J25" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
       <c r="B26" s="4">
         <v>6</v>
       </c>
@@ -2648,8 +2823,14 @@
       <c r="J26" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
       <c r="B27" s="2">
         <v>16</v>
       </c>
@@ -2678,10 +2859,13 @@
         <v>95</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
       <c r="B28" s="4">
         <v>14</v>
       </c>
@@ -2709,8 +2893,14 @@
       <c r="J28" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
       <c r="B29" s="4">
         <v>15</v>
       </c>
@@ -2738,11 +2928,11 @@
       <c r="J29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
       <c r="B30" s="6">
         <v>15</v>
       </c>
@@ -2770,11 +2960,11 @@
       <c r="J30" t="s">
         <v>185</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
       <c r="B31" s="4">
         <v>13</v>
       </c>
@@ -2802,8 +2992,14 @@
       <c r="J31" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
       <c r="B32" s="6">
         <v>14</v>
       </c>
@@ -2831,8 +3027,14 @@
       <c r="J32" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
       <c r="B33" s="4">
         <v>10</v>
       </c>
@@ -2860,8 +3062,14 @@
       <c r="J33" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
       <c r="B34" s="6">
         <v>9</v>
       </c>
@@ -2889,8 +3097,14 @@
       <c r="J34" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
       <c r="B35" s="4">
         <v>7</v>
       </c>
@@ -2918,8 +3132,14 @@
       <c r="J35" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
       <c r="B36" s="6">
         <v>7</v>
       </c>
@@ -2947,8 +3167,14 @@
       <c r="J36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
       <c r="B37" s="4">
         <v>1</v>
       </c>
@@ -2976,8 +3202,14 @@
       <c r="J37" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
       <c r="B38" s="6">
         <v>1</v>
       </c>
@@ -3005,8 +3237,14 @@
       <c r="J38" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
       <c r="B39" s="4">
         <v>16</v>
       </c>
@@ -3034,11 +3272,11 @@
       <c r="J39" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
       <c r="B40" s="6">
         <v>16</v>
       </c>
@@ -3066,11 +3304,11 @@
       <c r="J40" t="s">
         <v>186</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
       <c r="B41" s="4">
         <v>5</v>
       </c>
@@ -3098,8 +3336,14 @@
       <c r="J41" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
       <c r="B42" s="6">
         <v>6</v>
       </c>
@@ -3127,8 +3371,14 @@
       <c r="J42" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
       <c r="B43" s="4">
         <v>4</v>
       </c>
@@ -3156,8 +3406,14 @@
       <c r="J43" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
       <c r="B44" s="6">
         <v>5</v>
       </c>
@@ -3185,8 +3441,14 @@
       <c r="J44" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
       <c r="B45" s="4">
         <v>3</v>
       </c>
@@ -3214,8 +3476,14 @@
       <c r="J45" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
       <c r="B46" s="6">
         <v>3</v>
       </c>
@@ -3243,8 +3511,14 @@
       <c r="J46" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
       <c r="B47" s="4">
         <v>17</v>
       </c>
@@ -3272,11 +3546,11 @@
       <c r="J47" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
       <c r="B48" s="6">
         <v>18</v>
       </c>
@@ -3304,11 +3578,11 @@
       <c r="J48" t="s">
         <v>191</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
       <c r="B49" s="4">
         <v>19</v>
       </c>
@@ -3336,11 +3610,11 @@
       <c r="J49" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
       <c r="B50" s="4">
         <v>2</v>
       </c>
@@ -3368,8 +3642,14 @@
       <c r="J50" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
       <c r="B51" s="4">
         <v>18</v>
       </c>
@@ -3397,11 +3677,11 @@
       <c r="J51" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
       <c r="B52" s="6">
         <v>2</v>
       </c>
@@ -3429,8 +3709,14 @@
       <c r="J52" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
       <c r="B53" s="6">
         <v>19</v>
       </c>
@@ -3458,11 +3744,11 @@
       <c r="J53" t="s">
         <v>192</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
       <c r="B54" s="6">
         <v>13</v>
       </c>
@@ -3490,8 +3776,14 @@
       <c r="J54" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
       <c r="B55" s="6">
         <v>17</v>
       </c>
@@ -3523,7 +3815,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
       <c r="B56" s="6">
         <v>4</v>
       </c>
@@ -3551,8 +3846,14 @@
       <c r="J56" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
       <c r="B57" s="6">
         <v>11</v>
       </c>
@@ -3580,8 +3881,14 @@
       <c r="J57" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
       <c r="B58" s="6">
         <v>0</v>
       </c>
@@ -3609,8 +3916,14 @@
       <c r="J58" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
       <c r="B59" s="6">
         <v>12</v>
       </c>
@@ -3638,8 +3951,14 @@
       <c r="J59" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
       <c r="B60" s="6">
         <v>8</v>
       </c>
@@ -3667,8 +3986,14 @@
       <c r="J60" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
       <c r="B61" s="6">
         <v>10</v>
       </c>
@@ -3696,14 +4021,17 @@
       <c r="J61" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -4166,8 +4494,8 @@
       <c r="B217" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L61" xr:uid="{A9B215F6-83B1-4BCC-A8E3-F96FE3A2CB44}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:L61" xr:uid="{73BF7584-7A92-45AA-9BAC-25220B97EE6C}">
+    <filterColumn colId="1">
       <filters>
         <filter val="0"/>
         <filter val="1"/>
@@ -4186,6 +4514,14 @@
         <filter val="9"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L61">
+      <sortCondition ref="I1:I61"/>
+    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J217">
     <sortCondition ref="I1"/>
@@ -4195,25 +4531,5417 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C2E72-6E43-422E-9670-AE76E4B587A9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFAFBD8-4387-4785-8A12-28B9FF1E4BB1}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="0.109375" customWidth="1"/>
+    <col min="6" max="6" width="75.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.54746067670081899</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.45253932329918101</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.64628974444098186</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.35371025555901808</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.70977721086973111</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.29022278913026889</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.46737032031681852</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.53262967968318153</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.68865843989390418</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.31134156010609582</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.62725279081144936</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.3727472091885507</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.62028147720495941</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.37971852279504048</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.36132124490050671</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.63867875509949334</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.52105344546086574</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.47894655453913421</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.34810324608847171</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.65189675391152835</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.34810324608847171</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.65189675391152835</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.62000460571463345</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.37999539428536661</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.65061720498325148</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.34938279501674852</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.65061720498325148</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.34938279501674852</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.57594241202047614</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.42405758797952392</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.57594241202047614</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.42405758797952392</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.71111005301890695</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.28888994698109299</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.35855027906023978</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.64144972093976016</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.35855027906023978</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.64144972093976016</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.59063023065105624</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.40936976934894381</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.59063023065105624</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.40936976934894381</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.65467944506035947</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.34532055493964048</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.65467944506035947</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.34532055493964048</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.54756855684716399</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.45243144315283601</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.54756855684716399</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.45243144315283601</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.66063152132783709</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.33936847867216291</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.66063152132783709</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.33936847867216291</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.67304083971207729</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.32695916028792282</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6">
+        <v>15</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.67304083971207729</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.32695916028792282</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.65861414656333905</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.34138585343666089</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6">
+        <v>14</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.65861414656333905</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.34138585343666089</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.59619906417578283</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.40380093582421722</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.59619906417578283</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.40380093582421722</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.55184235494374412</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.44815764505625588</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="6">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.55184235494374412</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.44815764505625588</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" t="s">
+        <v>162</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.38431623867478198</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.61568376132521796</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.38431623867478198</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.61568376132521796</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" t="s">
+        <v>153</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>16</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.67815700024160619</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.32184299975839381</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.67815700024160619</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.32184299975839381</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.52229356653554604</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.47770643346445402</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.52229356653554604</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.47770643346445402</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.52196542207792729</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.47803457792207271</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.52196542207792729</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.47803457792207271</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.49852641437657991</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.50147358562342015</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.49852641437657991</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.50147358562342015</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.6910761574673977</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.3089238425326023</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6">
+        <v>18</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.6910761574673977</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.3089238425326023</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
+        <v>19</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.70517886198941915</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.29482113801058091</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.46972239653085812</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.53027760346914188</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
+        <v>18</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.70108426891268172</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.29891573108731828</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.46972239653085812</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.53027760346914188</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6">
+        <v>19</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.70108426891268172</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.29891573108731828</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6">
+        <v>13</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.6490064161526915</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.3509935838473085</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J54" t="s">
+        <v>183</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6">
+        <v>17</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.68662481989254665</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.3133751801074533</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.50257411361767068</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.49742588638232932</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" s="6">
+        <v>11</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.64166665425488412</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.35833334574511588</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" t="s">
+        <v>175</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.37293773750509579</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.62706226249490415</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J58" t="s">
+        <v>152</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6">
+        <v>12</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.64835513251501364</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.35164486748498641</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6">
+        <v>8</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.58251778902672358</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0.41748221097327642</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6">
+        <v>10</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.63689146165195676</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.3631085383480433</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J61" t="s">
+        <v>171</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L61" xr:uid="{73BF7584-7A92-45AA-9BAC-25220B97EE6C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L61">
+      <sortCondition ref="I1:I61"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8844DABC-5C3E-4747-A702-0799EC7EF897}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F85F8A2-1F34-427D-BF2A-C8B700394FEF}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="0.109375" customWidth="1"/>
+    <col min="6" max="6" width="75.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.54746067670081899</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.45253932329918101</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.64628974444098186</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.35371025555901808</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.70977721086973111</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.29022278913026889</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.46737032031681852</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.53262967968318153</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.68865843989390418</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.31134156010609582</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.62725279081144936</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.3727472091885507</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.62028147720495941</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.37971852279504048</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.36132124490050671</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.63867875509949334</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.52105344546086574</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.47894655453913421</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.34810324608847171</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.65189675391152835</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.34810324608847171</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.65189675391152835</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.62000460571463345</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.37999539428536661</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.65061720498325148</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.34938279501674852</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.65061720498325148</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.34938279501674852</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.57594241202047614</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.42405758797952392</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.57594241202047614</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.42405758797952392</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.71111005301890695</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.28888994698109299</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.35855027906023978</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.64144972093976016</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.35855027906023978</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.64144972093976016</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.59063023065105624</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.40936976934894381</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.59063023065105624</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.40936976934894381</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.65467944506035947</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.34532055493964048</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.65467944506035947</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.34532055493964048</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.54756855684716399</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.45243144315283601</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.54756855684716399</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.45243144315283601</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.66063152132783709</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.33936847867216291</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.66063152132783709</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.33936847867216291</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.67304083971207729</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.32695916028792282</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6">
+        <v>15</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.67304083971207729</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.32695916028792282</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.65861414656333905</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.34138585343666089</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6">
+        <v>14</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.65861414656333905</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.34138585343666089</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.59619906417578283</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.40380093582421722</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.59619906417578283</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.40380093582421722</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.55184235494374412</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.44815764505625588</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="6">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.55184235494374412</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.44815764505625588</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" t="s">
+        <v>162</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.38431623867478198</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.61568376132521796</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.38431623867478198</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.61568376132521796</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" t="s">
+        <v>153</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>16</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.67815700024160619</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.32184299975839381</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.67815700024160619</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.32184299975839381</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.52229356653554604</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.47770643346445402</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.52229356653554604</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.47770643346445402</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.52196542207792729</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.47803457792207271</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.52196542207792729</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.47803457792207271</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.49852641437657991</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.50147358562342015</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.49852641437657991</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.50147358562342015</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.6910761574673977</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.3089238425326023</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6">
+        <v>18</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.6910761574673977</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.3089238425326023</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
+        <v>19</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.70517886198941915</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.29482113801058091</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.46972239653085812</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.53027760346914188</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
+        <v>18</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.70108426891268172</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.29891573108731828</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.46972239653085812</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.53027760346914188</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6">
+        <v>19</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.70108426891268172</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.29891573108731828</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6">
+        <v>13</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.6490064161526915</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.3509935838473085</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J54" t="s">
+        <v>183</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6">
+        <v>17</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.68662481989254665</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.3133751801074533</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.50257411361767068</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.49742588638232932</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" s="6">
+        <v>11</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.64166665425488412</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.35833334574511588</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" t="s">
+        <v>175</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.37293773750509579</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.62706226249490415</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J58" t="s">
+        <v>152</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6">
+        <v>12</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.64835513251501364</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.35164486748498641</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6">
+        <v>8</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.58251778902672358</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0.41748221097327642</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6">
+        <v>10</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.63689146165195676</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.3631085383480433</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J61" t="s">
+        <v>171</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L61" xr:uid="{73BF7584-7A92-45AA-9BAC-25220B97EE6C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L61">
+      <sortCondition ref="I1:I61"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5112AA-710D-4C34-B747-BD88046FB115}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f>AVERAGE(C4:C12)/10</f>
+        <v>0.54444444444444451</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D4:D12)/15</f>
+        <v>0.45185185185185184</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{BA6AC922-AD07-40BD-A32C-E08B6E844C12}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{6D8E0C07-D43B-4F9B-B5C6-12739D71F9D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Scripts/Python Script Versions/Experimental Data/Client Testing - multiple day pulls/Main Version12-13.xlsx
+++ b/Scripts/Python Script Versions/Experimental Data/Client Testing - multiple day pulls/Main Version12-13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padmanie\Documents\GitHub\Capstone\DataCollection\Scripts\Python Script Versions\Experimental Data\Client Testing - multiple day pulls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389C4762-ABDE-4580-9892-31892D0485FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D39DA27-FDE5-4859-938D-0878AB6BC60E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hayden" sheetId="1" r:id="rId1"/>
@@ -1909,8 +1909,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4495,6 +4495,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L61" xr:uid="{73BF7584-7A92-45AA-9BAC-25220B97EE6C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="0"/>
@@ -9779,8 +9784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5112AA-710D-4C34-B747-BD88046FB115}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
